--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Pecam1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H2">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I2">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J2">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>340.119855760688</v>
+        <v>343.9479473333333</v>
       </c>
       <c r="N2">
-        <v>340.119855760688</v>
+        <v>1031.843842</v>
       </c>
       <c r="O2">
-        <v>0.9687898421702493</v>
+        <v>0.9666099193889262</v>
       </c>
       <c r="P2">
-        <v>0.9687898421702493</v>
+        <v>0.966609919388926</v>
       </c>
       <c r="Q2">
-        <v>17345.97269893195</v>
+        <v>18097.21942601703</v>
       </c>
       <c r="R2">
-        <v>17345.97269893195</v>
+        <v>162874.9748341533</v>
       </c>
       <c r="S2">
-        <v>0.7469391403417257</v>
+        <v>0.7415367803743214</v>
       </c>
       <c r="T2">
-        <v>0.7469391403417257</v>
+        <v>0.7415367803743212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H3">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I3">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J3">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.96254801691429</v>
+        <v>5.970184</v>
       </c>
       <c r="N3">
-        <v>5.96254801691429</v>
+        <v>17.910552</v>
       </c>
       <c r="O3">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="P3">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="Q3">
-        <v>304.0874955275705</v>
+        <v>314.1281426430107</v>
       </c>
       <c r="R3">
-        <v>304.0874955275705</v>
+        <v>2827.153283787096</v>
       </c>
       <c r="S3">
-        <v>0.01309438544844575</v>
+        <v>0.01287145643963329</v>
       </c>
       <c r="T3">
-        <v>0.01309438544844575</v>
+        <v>0.01287145643963329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H4">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I4">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J4">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.39850846972945</v>
+        <v>2.671367333333334</v>
       </c>
       <c r="N4">
-        <v>2.39850846972945</v>
+        <v>8.014102000000001</v>
       </c>
       <c r="O4">
-        <v>0.006831858247841154</v>
+        <v>0.007507444608265281</v>
       </c>
       <c r="P4">
-        <v>0.006831858247841154</v>
+        <v>0.00750744460826528</v>
       </c>
       <c r="Q4">
-        <v>122.3229450719203</v>
+        <v>140.5570847962496</v>
       </c>
       <c r="R4">
-        <v>122.3229450719203</v>
+        <v>1265.013763166246</v>
       </c>
       <c r="S4">
-        <v>0.005267378026123268</v>
+        <v>0.005759351515005126</v>
       </c>
       <c r="T4">
-        <v>0.005267378026123268</v>
+        <v>0.005759351515005126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H5">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I5">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J5">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.59611287791453</v>
+        <v>3.239611333333334</v>
       </c>
       <c r="N5">
-        <v>2.59611287791453</v>
+        <v>9.718834000000001</v>
       </c>
       <c r="O5">
-        <v>0.00739471025478916</v>
+        <v>0.009104402204005551</v>
       </c>
       <c r="P5">
-        <v>0.00739471025478916</v>
+        <v>0.00910440220400555</v>
       </c>
       <c r="Q5">
-        <v>132.400688583545</v>
+        <v>170.455900693387</v>
       </c>
       <c r="R5">
-        <v>132.400688583545</v>
+        <v>1534.103106240482</v>
       </c>
       <c r="S5">
-        <v>0.005701338185395331</v>
+        <v>0.006984460806960447</v>
       </c>
       <c r="T5">
-        <v>0.005701338185395331</v>
+        <v>0.006984460806960445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.35733791953756</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H6">
-        <v>9.35733791953756</v>
+        <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="J6">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>340.119855760688</v>
+        <v>343.9479473333333</v>
       </c>
       <c r="N6">
-        <v>340.119855760688</v>
+        <v>1031.843842</v>
       </c>
       <c r="O6">
-        <v>0.9687898421702493</v>
+        <v>0.9666099193889262</v>
       </c>
       <c r="P6">
-        <v>0.9687898421702493</v>
+        <v>0.966609919388926</v>
       </c>
       <c r="Q6">
-        <v>3182.616423497131</v>
+        <v>3231.712671176739</v>
       </c>
       <c r="R6">
-        <v>3182.616423497131</v>
+        <v>29085.41404059065</v>
       </c>
       <c r="S6">
-        <v>0.1370474182488929</v>
+        <v>0.1324200007120498</v>
       </c>
       <c r="T6">
-        <v>0.1370474182488929</v>
+        <v>0.1324200007120498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.35733791953756</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H7">
-        <v>9.35733791953756</v>
+        <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="J7">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.96254801691429</v>
+        <v>5.970184</v>
       </c>
       <c r="N7">
-        <v>5.96254801691429</v>
+        <v>17.910552</v>
       </c>
       <c r="O7">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="P7">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="Q7">
-        <v>55.79357665573557</v>
+        <v>56.09546279210132</v>
       </c>
       <c r="R7">
-        <v>55.79357665573557</v>
+        <v>504.859165128912</v>
       </c>
       <c r="S7">
-        <v>0.002402540745748512</v>
+        <v>0.002298521551474457</v>
       </c>
       <c r="T7">
-        <v>0.002402540745748512</v>
+        <v>0.002298521551474457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.35733791953756</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H8">
-        <v>9.35733791953756</v>
+        <v>28.187806</v>
       </c>
       <c r="I8">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="J8">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.39850846972945</v>
+        <v>2.671367333333334</v>
       </c>
       <c r="N8">
-        <v>2.39850846972945</v>
+        <v>8.014102000000001</v>
       </c>
       <c r="O8">
-        <v>0.006831858247841154</v>
+        <v>0.007507444608265281</v>
       </c>
       <c r="P8">
-        <v>0.006831858247841154</v>
+        <v>0.00750744460826528</v>
       </c>
       <c r="Q8">
-        <v>22.44365425413139</v>
+        <v>25.09999471557911</v>
       </c>
       <c r="R8">
-        <v>22.44365425413139</v>
+        <v>225.899952440212</v>
       </c>
       <c r="S8">
-        <v>0.0009664516430225923</v>
+        <v>0.001028476741683593</v>
       </c>
       <c r="T8">
-        <v>0.0009664516430225923</v>
+        <v>0.001028476741683593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.35733791953756</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H9">
-        <v>9.35733791953756</v>
+        <v>28.187806</v>
       </c>
       <c r="I9">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="J9">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.59611287791453</v>
+        <v>3.239611333333334</v>
       </c>
       <c r="N9">
-        <v>2.59611287791453</v>
+        <v>9.718834000000001</v>
       </c>
       <c r="O9">
-        <v>0.00739471025478916</v>
+        <v>0.009104402204005551</v>
       </c>
       <c r="P9">
-        <v>0.00739471025478916</v>
+        <v>0.00910440220400555</v>
       </c>
       <c r="Q9">
-        <v>24.29270547590942</v>
+        <v>30.43917859313378</v>
       </c>
       <c r="R9">
-        <v>24.29270547590942</v>
+        <v>273.952607338204</v>
       </c>
       <c r="S9">
-        <v>0.001046074086457416</v>
+        <v>0.001247250749401956</v>
       </c>
       <c r="T9">
-        <v>0.001046074086457416</v>
+        <v>0.001247250749401956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>5.79020744265196</v>
+        <v>0.08161033333333334</v>
       </c>
       <c r="H10">
-        <v>5.79020744265196</v>
+        <v>0.244831</v>
       </c>
       <c r="I10">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="J10">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>340.119855760688</v>
+        <v>343.9479473333333</v>
       </c>
       <c r="N10">
-        <v>340.119855760688</v>
+        <v>1031.843842</v>
       </c>
       <c r="O10">
-        <v>0.9687898421702493</v>
+        <v>0.9666099193889262</v>
       </c>
       <c r="P10">
-        <v>0.9687898421702493</v>
+        <v>0.966609919388926</v>
       </c>
       <c r="Q10">
-        <v>1969.364520219247</v>
+        <v>28.06970663118911</v>
       </c>
       <c r="R10">
-        <v>1969.364520219247</v>
+        <v>252.627359680702</v>
       </c>
       <c r="S10">
-        <v>0.08480328357963075</v>
+        <v>0.001150161214900226</v>
       </c>
       <c r="T10">
-        <v>0.08480328357963075</v>
+        <v>0.001150161214900225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>5.79020744265196</v>
+        <v>0.08161033333333334</v>
       </c>
       <c r="H11">
-        <v>5.79020744265196</v>
+        <v>0.244831</v>
       </c>
       <c r="I11">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="J11">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.96254801691429</v>
+        <v>5.970184</v>
       </c>
       <c r="N11">
-        <v>5.96254801691429</v>
+        <v>17.910552</v>
       </c>
       <c r="O11">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="P11">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="Q11">
-        <v>34.52438990470681</v>
+        <v>0.4872287063013334</v>
       </c>
       <c r="R11">
-        <v>34.52438990470681</v>
+        <v>4.385058356712</v>
       </c>
       <c r="S11">
-        <v>0.00148666313292607</v>
+        <v>1.996428278132193E-05</v>
       </c>
       <c r="T11">
-        <v>0.00148666313292607</v>
+        <v>1.996428278132193E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>5.79020744265196</v>
+        <v>0.08161033333333334</v>
       </c>
       <c r="H12">
-        <v>5.79020744265196</v>
+        <v>0.244831</v>
       </c>
       <c r="I12">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="J12">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.39850846972945</v>
+        <v>2.671367333333334</v>
       </c>
       <c r="N12">
-        <v>2.39850846972945</v>
+        <v>8.014102000000001</v>
       </c>
       <c r="O12">
-        <v>0.006831858247841154</v>
+        <v>0.007507444608265281</v>
       </c>
       <c r="P12">
-        <v>0.006831858247841154</v>
+        <v>0.00750744460826528</v>
       </c>
       <c r="Q12">
-        <v>13.88786159269122</v>
+        <v>0.2180111785291112</v>
       </c>
       <c r="R12">
-        <v>13.88786159269122</v>
+        <v>1.962100606762</v>
       </c>
       <c r="S12">
-        <v>0.0005980285786952943</v>
+        <v>8.933046762956142E-06</v>
       </c>
       <c r="T12">
-        <v>0.0005980285786952943</v>
+        <v>8.933046762956142E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08161033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.244831</v>
+      </c>
+      <c r="I13">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="J13">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.239611333333334</v>
+      </c>
+      <c r="N13">
+        <v>9.718834000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.009104402204005551</v>
+      </c>
+      <c r="P13">
+        <v>0.00910440220400555</v>
+      </c>
+      <c r="Q13">
+        <v>0.2643857607837778</v>
+      </c>
+      <c r="R13">
+        <v>2.379471847054</v>
+      </c>
+      <c r="S13">
+        <v>1.083325350780513E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.083325350780513E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.492645</v>
+      </c>
+      <c r="H14">
+        <v>19.477935</v>
+      </c>
+      <c r="I14">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J14">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>343.9479473333333</v>
+      </c>
+      <c r="N14">
+        <v>1031.843842</v>
+      </c>
+      <c r="O14">
+        <v>0.9666099193889262</v>
+      </c>
+      <c r="P14">
+        <v>0.966609919388926</v>
+      </c>
+      <c r="Q14">
+        <v>2233.13192051403</v>
+      </c>
+      <c r="R14">
+        <v>20098.18728462627</v>
+      </c>
+      <c r="S14">
+        <v>0.09150297708765485</v>
+      </c>
+      <c r="T14">
+        <v>0.09150297708765484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.492645</v>
+      </c>
+      <c r="H15">
+        <v>19.477935</v>
+      </c>
+      <c r="I15">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J15">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.970184</v>
+      </c>
+      <c r="N15">
+        <v>17.910552</v>
+      </c>
+      <c r="O15">
+        <v>0.01677823379880302</v>
+      </c>
+      <c r="P15">
+        <v>0.01677823379880302</v>
+      </c>
+      <c r="Q15">
+        <v>38.76228529668</v>
+      </c>
+      <c r="R15">
+        <v>348.86056767012</v>
+      </c>
+      <c r="S15">
+        <v>0.001588291524913952</v>
+      </c>
+      <c r="T15">
+        <v>0.001588291524913952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.79020744265196</v>
-      </c>
-      <c r="H13">
-        <v>5.79020744265196</v>
-      </c>
-      <c r="I13">
-        <v>0.08753527327418853</v>
-      </c>
-      <c r="J13">
-        <v>0.08753527327418853</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.59611287791453</v>
-      </c>
-      <c r="N13">
-        <v>2.59611287791453</v>
-      </c>
-      <c r="O13">
-        <v>0.00739471025478916</v>
-      </c>
-      <c r="P13">
-        <v>0.00739471025478916</v>
-      </c>
-      <c r="Q13">
-        <v>15.03203210766531</v>
-      </c>
-      <c r="R13">
-        <v>15.03203210766531</v>
-      </c>
-      <c r="S13">
-        <v>0.0006472979829364134</v>
-      </c>
-      <c r="T13">
-        <v>0.0006472979829364134</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.492645</v>
+      </c>
+      <c r="H16">
+        <v>19.477935</v>
+      </c>
+      <c r="I16">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J16">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.671367333333334</v>
+      </c>
+      <c r="N16">
+        <v>8.014102000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.007507444608265281</v>
+      </c>
+      <c r="P16">
+        <v>0.00750744460826528</v>
+      </c>
+      <c r="Q16">
+        <v>17.34423975993001</v>
+      </c>
+      <c r="R16">
+        <v>156.09815783937</v>
+      </c>
+      <c r="S16">
+        <v>0.0007106833048136067</v>
+      </c>
+      <c r="T16">
+        <v>0.0007106833048136067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.492645</v>
+      </c>
+      <c r="H17">
+        <v>19.477935</v>
+      </c>
+      <c r="I17">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J17">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.239611333333334</v>
+      </c>
+      <c r="N17">
+        <v>9.718834000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.009104402204005551</v>
+      </c>
+      <c r="P17">
+        <v>0.00910440220400555</v>
+      </c>
+      <c r="Q17">
+        <v>21.03364632531001</v>
+      </c>
+      <c r="R17">
+        <v>189.30281692779</v>
+      </c>
+      <c r="S17">
+        <v>0.0008618573941353436</v>
+      </c>
+      <c r="T17">
+        <v>0.0008618573941353433</v>
       </c>
     </row>
   </sheetData>
